--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1336412.880340542</v>
+        <v>1391312.589598581</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>1786423.703430226</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6920502.691214809</v>
+        <v>7146901.460444083</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.3447566940937</v>
+        <v>78.46731537944622</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.8308457545371</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170406</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -874,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +901,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>251.3641700159526</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>263.8370376882577</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>69.5993846393807</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1117,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1133,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1142,10 +1144,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>218.6295128576332</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>139.8297093062964</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>23.59638424611641</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1351,7 +1353,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1370,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1382,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>186.5146679205615</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>156.1043160322361</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>4.378995526348037</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1619,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>186.5146679205615</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>227.755422490902</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1853,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -2005,10 +2007,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>73.98487681738607</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2059,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>124.4294523839912</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>218.7757544134941</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>124.4294523839912</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.0407182056497</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>121.2482518332238</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2953,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3190,16 +3192,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>42.31835596290409</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3247,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3518,7 +3520,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -3664,16 +3666,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3740,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>117.9017664154507</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>174.7788064468596</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>211.2730214979432</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3979,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>119.7628835490609</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>330.4778708711513</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>111.5363068819808</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1245.829319551529</v>
+        <v>1808.387759433938</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.968993605233</v>
+        <v>1381.487029447238</v>
       </c>
       <c r="D2" t="n">
-        <v>799.6763727902337</v>
+        <v>958.1944086322388</v>
       </c>
       <c r="E2" t="n">
-        <v>777.7398369784953</v>
+        <v>532.2174687800964</v>
       </c>
       <c r="F2" t="n">
-        <v>352.6156551678955</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G2" t="n">
-        <v>352.3169967977481</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>583.4696253673028</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L2" t="n">
-        <v>583.4696253673028</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M2" t="n">
-        <v>1257.271276480617</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="N2" t="n">
-        <v>1931.072927593931</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="O2" t="n">
-        <v>2604.874578707245</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="P2" t="n">
-        <v>2604.874578707245</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>2618.063619462288</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U2" t="n">
-        <v>2618.063619462288</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V2" t="n">
-        <v>2260.574204588538</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="W2" t="n">
-        <v>2260.574204588538</v>
+        <v>2719.216037082414</v>
       </c>
       <c r="X2" t="n">
-        <v>1848.854205756285</v>
+        <v>2307.496038250161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1665.677683843059</v>
+        <v>2228.236123725468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M3" t="n">
-        <v>515.5329466256644</v>
+        <v>274.6529237674293</v>
       </c>
       <c r="N3" t="n">
-        <v>1189.334597738979</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O3" t="n">
-        <v>1189.334597738979</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1625.199008700256</v>
+        <v>1638.553905277558</v>
       </c>
       <c r="C4" t="n">
-        <v>1453.226445579172</v>
+        <v>1514.243407987618</v>
       </c>
       <c r="D4" t="n">
-        <v>1289.909672705943</v>
+        <v>1514.243407987618</v>
       </c>
       <c r="E4" t="n">
-        <v>1123.701466858797</v>
+        <v>1514.243407987618</v>
       </c>
       <c r="F4" t="n">
-        <v>951.8396926333571</v>
+        <v>1514.243407987618</v>
       </c>
       <c r="G4" t="n">
-        <v>785.5827229275893</v>
+        <v>1514.243407987618</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>1514.243407987618</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>1471.966167952051</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>1698.493769157889</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>2053.183090452309</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>2444.36888542256</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>2821.860396298596</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>3177.288524978359</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>3467.88773690026</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R4" t="n">
-        <v>2675.392300276321</v>
+        <v>3547.849253828195</v>
       </c>
       <c r="S4" t="n">
-        <v>2505.257252795456</v>
+        <v>3377.71420634733</v>
       </c>
       <c r="T4" t="n">
-        <v>2261.917905021356</v>
+        <v>3134.37485857323</v>
       </c>
       <c r="U4" t="n">
-        <v>1981.73345652166</v>
+        <v>2854.190410073534</v>
       </c>
       <c r="V4" t="n">
-        <v>1981.73345652166</v>
+        <v>2572.478942681563</v>
       </c>
       <c r="W4" t="n">
-        <v>1981.73345652166</v>
+        <v>2297.626538854076</v>
       </c>
       <c r="X4" t="n">
-        <v>1739.169559967466</v>
+        <v>2055.062642299881</v>
       </c>
       <c r="Y4" t="n">
-        <v>1739.169559967466</v>
+        <v>1828.719873989623</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>947.9609410255639</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="C5" t="n">
-        <v>521.0602110388641</v>
+        <v>1177.200739412026</v>
       </c>
       <c r="D5" t="n">
-        <v>97.76759022386436</v>
+        <v>923.29753737571</v>
       </c>
       <c r="E5" t="n">
-        <v>75.83105441212597</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74727664193027</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>417.0520770886785</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>1090.853728201993</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L5" t="n">
-        <v>1764.655379315307</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M5" t="n">
-        <v>1764.655379315307</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="N5" t="n">
-        <v>2438.457030428621</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="O5" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T5" t="n">
-        <v>2397.138048506922</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U5" t="n">
-        <v>2397.138048506922</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V5" t="n">
-        <v>2039.648633633171</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W5" t="n">
-        <v>2039.648633633171</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="X5" t="n">
-        <v>1773.146575362204</v>
+        <v>2429.287103735365</v>
       </c>
       <c r="Y5" t="n">
-        <v>1367.809305317094</v>
+        <v>2023.949833690256</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L6" t="n">
-        <v>728.2502693850971</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="M6" t="n">
-        <v>1402.051920498411</v>
+        <v>969.0791474221352</v>
       </c>
       <c r="N6" t="n">
-        <v>1402.051920498411</v>
+        <v>1858.813894539538</v>
       </c>
       <c r="O6" t="n">
-        <v>1402.051920498411</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P6" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>974.3129679227906</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C7" t="n">
-        <v>802.3404048017065</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D7" t="n">
-        <v>802.3404048017065</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="E7" t="n">
-        <v>636.1321989545601</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="F7" t="n">
-        <v>464.2704247291205</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T7" t="n">
-        <v>2017.687984891219</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U7" t="n">
-        <v>1947.385576164572</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V7" t="n">
-        <v>1665.674108772601</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W7" t="n">
-        <v>1390.821704945114</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X7" t="n">
-        <v>1390.821704945114</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y7" t="n">
-        <v>1164.478936634856</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1386.898216322497</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="C8" t="n">
-        <v>1364.037890376201</v>
+        <v>1177.200739412026</v>
       </c>
       <c r="D8" t="n">
-        <v>940.7452695612013</v>
+        <v>753.908118597026</v>
       </c>
       <c r="E8" t="n">
-        <v>514.7683297090589</v>
+        <v>327.9311787448836</v>
       </c>
       <c r="F8" t="n">
-        <v>493.6845519388631</v>
+        <v>107.0932869694965</v>
       </c>
       <c r="G8" t="n">
-        <v>89.34548952831176</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>701.0259602492056</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L8" t="n">
-        <v>1374.82761136252</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="M8" t="n">
-        <v>1374.82761136252</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N8" t="n">
-        <v>2048.629262475834</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>2522.285462586535</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>3230.564741744462</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U8" t="n">
-        <v>2359.7087100587</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V8" t="n">
-        <v>2359.7087100587</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W8" t="n">
-        <v>2359.7087100587</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="X8" t="n">
-        <v>1947.988711226448</v>
+        <v>2429.287103735365</v>
       </c>
       <c r="Y8" t="n">
-        <v>1806.746580614027</v>
+        <v>2023.949833690256</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J9" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K9" t="n">
-        <v>61.8952612336948</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L9" t="n">
-        <v>515.5329466256644</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M9" t="n">
-        <v>515.5329466256644</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.334597738979</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>723.5151351297991</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C10" t="n">
-        <v>699.6804035680653</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D10" t="n">
-        <v>536.363630694836</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="E10" t="n">
-        <v>536.363630694836</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F10" t="n">
-        <v>364.5018564693964</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G10" t="n">
-        <v>198.2448867636286</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S10" t="n">
-        <v>2187.823032372085</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T10" t="n">
-        <v>1944.483684597984</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U10" t="n">
-        <v>1664.299236098289</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V10" t="n">
-        <v>1382.587768706318</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W10" t="n">
-        <v>1382.587768706318</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X10" t="n">
-        <v>1140.023872152123</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y10" t="n">
-        <v>913.6811038418648</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1733.181423160076</v>
+        <v>1961.590884272476</v>
       </c>
       <c r="C11" t="n">
-        <v>1733.181423160076</v>
+        <v>1534.690154285776</v>
       </c>
       <c r="D11" t="n">
-        <v>1309.888802345077</v>
+        <v>1111.397533470776</v>
       </c>
       <c r="E11" t="n">
-        <v>883.9118624929341</v>
+        <v>685.4205936186339</v>
       </c>
       <c r="F11" t="n">
-        <v>458.7876806823343</v>
+        <v>260.2964118080341</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>728.2502693850971</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>1402.051920498411</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M11" t="n">
-        <v>1402.051920498411</v>
+        <v>2176.101402604123</v>
       </c>
       <c r="N11" t="n">
-        <v>1402.051920498411</v>
+        <v>2176.101402604123</v>
       </c>
       <c r="O11" t="n">
-        <v>2048.629262475834</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V11" t="n">
-        <v>2564.749786283859</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W11" t="n">
-        <v>2564.749786283859</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X11" t="n">
-        <v>2153.029787451606</v>
+        <v>2786.776518609116</v>
       </c>
       <c r="Y11" t="n">
-        <v>2153.029787451606</v>
+        <v>2381.439248564006</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K12" t="n">
-        <v>644.9335448401225</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L12" t="n">
-        <v>1189.334597738979</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>101.3693627944557</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.136248852293</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.6936525335126</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="C13" t="n">
-        <v>468.6936525335126</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="D13" t="n">
-        <v>468.6936525335126</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="E13" t="n">
-        <v>468.6936525335126</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1607.757180871042</v>
+        <v>1961.590884272476</v>
       </c>
       <c r="C14" t="n">
-        <v>1607.757180871042</v>
+        <v>1534.690154285776</v>
       </c>
       <c r="D14" t="n">
-        <v>1607.757180871042</v>
+        <v>1111.397533470776</v>
       </c>
       <c r="E14" t="n">
-        <v>1181.780241018899</v>
+        <v>685.4205936186339</v>
       </c>
       <c r="F14" t="n">
-        <v>756.6560592082994</v>
+        <v>260.2964118080341</v>
       </c>
       <c r="G14" t="n">
-        <v>352.3169967977481</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>701.0259602492056</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M14" t="n">
-        <v>1374.82761136252</v>
+        <v>1742.452134990904</v>
       </c>
       <c r="N14" t="n">
-        <v>2048.629262475834</v>
+        <v>2632.186882108307</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>2501.505342633781</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>2243.150433230194</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V14" t="n">
-        <v>2013.094450916151</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W14" t="n">
-        <v>2013.094450916151</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X14" t="n">
-        <v>2013.094450916151</v>
+        <v>2786.776518609116</v>
       </c>
       <c r="Y14" t="n">
-        <v>1607.757180871042</v>
+        <v>2381.439248564006</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M15" t="n">
-        <v>728.2502693850971</v>
+        <v>101.3693627944557</v>
       </c>
       <c r="N15" t="n">
-        <v>1402.051920498411</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O15" t="n">
-        <v>1402.051920498411</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P15" t="n">
-        <v>1402.051920498411</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.554778200025</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5603,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.8947875232845</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>614.9222244022005</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>540.1900255967601</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>540.1900255967601</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5707,16 +5709,16 @@
         <v>2002.531292319261</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.81982492729</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W19" t="n">
-        <v>1445.967421099803</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X19" t="n">
-        <v>1203.403524545608</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>977.0607562353503</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,25 +5755,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>3857.609571081677</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>939.4897558901635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>939.4897558901635</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>939.4897558901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="U22" t="n">
-        <v>2002.531292319261</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="V22" t="n">
-        <v>2002.531292319261</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="W22" t="n">
-        <v>1727.678888491774</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L23" t="n">
-        <v>1394.531219842001</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M23" t="n">
-        <v>2398.817321261059</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>3105.626261478504</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629316</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>4664.816174310867</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>4664.816174310867</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W25" t="n">
-        <v>4664.816174310867</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>4422.252277756672</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784958</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574118</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.555503974472</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V28" t="n">
-        <v>1875.844036582501</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.991632755014</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X28" t="n">
-        <v>1358.427736200819</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890562</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6540,22 +6542,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>374.0002026854196</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.555503974472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C33" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D33" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E33" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F33" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G33" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>4398.937953252929</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S33" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T33" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U33" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V33" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W33" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X33" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y33" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>818.4078435766714</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>646.4352804555874</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>483.1185075823581</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>316.9103017352116</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>145.0485275097721</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1234.916580598995</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>1008.573812288737</v>
       </c>
     </row>
     <row r="35">
@@ -6950,7 +6952,7 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>3306.448039710919</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M36" t="n">
-        <v>4362.434577686964</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N36" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7175,25 +7177,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.555503974472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1485.525280420256</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="C41" t="n">
-        <v>1058.624550433556</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="D41" t="n">
-        <v>635.3319296185562</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="E41" t="n">
-        <v>635.3319296185562</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F41" t="n">
-        <v>635.3319296185562</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G41" t="n">
-        <v>230.9928672080048</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L41" t="n">
-        <v>728.2502693850971</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M41" t="n">
-        <v>1402.051920498411</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N41" t="n">
-        <v>1474.987448089748</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O41" t="n">
-        <v>2148.789099203062</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P41" t="n">
-        <v>2148.789099203062</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U41" t="n">
-        <v>2722.430913589148</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V41" t="n">
-        <v>2722.430913589148</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W41" t="n">
-        <v>2722.430913589148</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X41" t="n">
-        <v>2310.710914756895</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y41" t="n">
-        <v>1905.373644711786</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J42" t="n">
-        <v>326.146107551374</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K42" t="n">
-        <v>916.6310341197136</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L42" t="n">
-        <v>916.6310341197136</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M42" t="n">
-        <v>1316.97146190481</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N42" t="n">
-        <v>1316.97146190481</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O42" t="n">
-        <v>1316.97146190481</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P42" t="n">
-        <v>1316.97146190481</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U43" t="n">
-        <v>2234.861645684911</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.554778200025</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="W43" t="n">
-        <v>1796.702374372538</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.138477818344</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.795709508086</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>352.3169967977481</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C44" t="n">
-        <v>352.3169967977481</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D44" t="n">
-        <v>352.3169967977481</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E44" t="n">
-        <v>352.3169967977481</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F44" t="n">
-        <v>352.3169967977481</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G44" t="n">
-        <v>352.3169967977481</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>54.44861827178296</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L44" t="n">
-        <v>728.2502693850971</v>
+        <v>434.501216159716</v>
       </c>
       <c r="M44" t="n">
-        <v>1402.051920498411</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="N44" t="n">
-        <v>2075.853571611725</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O44" t="n">
-        <v>2266.345434084965</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P44" t="n">
-        <v>2266.345434084965</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>2601.458303943632</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>2343.103394540044</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V44" t="n">
-        <v>1985.613979666294</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="W44" t="n">
-        <v>1589.22262996664</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="X44" t="n">
-        <v>1177.502631134388</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y44" t="n">
-        <v>772.1653610892781</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J45" t="n">
-        <v>333.5927505132859</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K45" t="n">
-        <v>924.0776770816254</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L45" t="n">
-        <v>1189.334597738979</v>
+        <v>1770.878981273657</v>
       </c>
       <c r="M45" t="n">
-        <v>1189.334597738979</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>965.7679665705803</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C46" t="n">
-        <v>793.7954034494962</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D46" t="n">
-        <v>630.4786305762669</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E46" t="n">
-        <v>464.2704247291205</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2017.687984891219</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T46" t="n">
-        <v>1905.025048646794</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U46" t="n">
-        <v>1624.840600147099</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V46" t="n">
-        <v>1624.840600147099</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W46" t="n">
-        <v>1624.840600147099</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X46" t="n">
-        <v>1382.276703592904</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y46" t="n">
-        <v>1155.933935282646</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>570.1292544266475</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>130.0849334822004</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8064,16 +8066,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>488.8385263243295</v>
+        <v>227.8999789210238</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8216,19 +8218,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>590.6660005002013</v>
       </c>
       <c r="O5" t="n">
-        <v>324.233265578779</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8237,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>45.16329718059816</v>
       </c>
       <c r="P6" t="n">
-        <v>404.6647990524836</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>322.606907017564</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>404.1278315708194</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8526,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
-        <v>480.7349709485423</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>530.1725249301787</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>175.1657390120635</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,19 +8771,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>572.4151401474176</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>52.86607894832319</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>691.4204686724437</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>635.8581425516425</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O14" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -8948,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>52.86607894832319</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>488.4887841009801</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9173,19 +9175,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>949.8342934347922</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9401,7 +9403,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9410,7 +9412,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9419,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>472.1756697257304</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,22 +9479,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>593.7166556079103</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9647,7 +9649,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>751.2280472965118</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9656,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>480.8452212937382</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10188,25 +10190,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>475.2939470053066</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10349,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>611.7910214708227</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10434,16 +10436,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>852.2551465529489</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10598,10 +10600,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10665,16 +10667,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>784.1890535317962</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10823,10 +10825,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10911,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>300.5735435756951</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,19 +11065,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N41" t="n">
-        <v>110.9518729267053</v>
+        <v>548.5822682748222</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11136,31 +11138,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>427.4810510023246</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>182.3161482577561</v>
       </c>
       <c r="O44" t="n">
-        <v>229.806982056266</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11379,13 +11381,13 @@
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>290.4513702065054</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>213.7810038658843</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23315,16 +23317,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>197.8102046927769</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,7 +23427,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>165.7641609568371</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>213.7810038658843</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23546,19 +23548,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>126.159098234111</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>87.69872832711093</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>115.7088052046617</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>22.1301998828649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>115.7088052046617</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.03862242150569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>40.43535331127319</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24886,13 +24888,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>122.2760440458061</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25597,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25628,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>304.7299562713822</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>120.1108882938459</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>12.8063191292122</v>
       </c>
     </row>
     <row r="44">
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25916,19 +25918,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>98.95343169675229</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>77.12492797277895</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>129.3696474143782</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>433833.8103437082</v>
+        <v>511318.5515279082</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>433833.8103437082</v>
+        <v>511318.5515279082</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>646334.9636080643</v>
+        <v>646334.9636080645</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>646334.9636080645</v>
+        <v>646334.9636080643</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646334.9636080645</v>
+        <v>646334.9636080643</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>646334.9636080645</v>
+        <v>646334.9636080643</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>433833.8103437082</v>
+        <v>511318.5515279083</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>433833.810343708</v>
+        <v>511318.5515279082</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26316,28 @@
         <v>349465.600806698</v>
       </c>
       <c r="C2" t="n">
-        <v>349465.6008066979</v>
+        <v>349465.600806698</v>
       </c>
       <c r="D2" t="n">
         <v>349465.600806698</v>
       </c>
       <c r="E2" t="n">
-        <v>226348.0749619346</v>
+        <v>266774.8964493432</v>
       </c>
       <c r="F2" t="n">
-        <v>226348.0749619346</v>
+        <v>266774.8964493432</v>
       </c>
       <c r="G2" t="n">
+        <v>337218.2418824684</v>
+      </c>
+      <c r="H2" t="n">
+        <v>337218.2418824684</v>
+      </c>
+      <c r="I2" t="n">
         <v>337218.2418824685</v>
       </c>
-      <c r="H2" t="n">
-        <v>337218.2418824686</v>
-      </c>
-      <c r="I2" t="n">
-        <v>337218.2418824683</v>
-      </c>
       <c r="J2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="K2" t="n">
         <v>337218.2418824684</v>
@@ -26344,16 +26346,16 @@
         <v>337218.2418824684</v>
       </c>
       <c r="M2" t="n">
-        <v>337218.2418824686</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="N2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="O2" t="n">
-        <v>226348.0749619346</v>
+        <v>266774.8964493432</v>
       </c>
       <c r="P2" t="n">
-        <v>226348.0749619347</v>
+        <v>266774.8964493432</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117636.3073549515</v>
+        <v>79282.26202110137</v>
       </c>
       <c r="C4" t="n">
-        <v>117636.3073549515</v>
+        <v>79282.26202110137</v>
       </c>
       <c r="D4" t="n">
-        <v>117636.3073549515</v>
+        <v>79282.26202110139</v>
       </c>
       <c r="E4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="F4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.060259943367</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="J4" t="n">
         <v>800.0602599433672</v>
@@ -26454,10 +26456,10 @@
         <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
-        <v>517.2570589421074</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="P4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340386</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71266.56019849253</v>
+        <v>-119268.958469922</v>
       </c>
       <c r="C6" t="n">
-        <v>156820.7435651914</v>
+        <v>181913.4432050531</v>
       </c>
       <c r="D6" t="n">
-        <v>156820.7435651915</v>
+        <v>181913.4432050531</v>
       </c>
       <c r="E6" t="n">
-        <v>184449.8680164375</v>
+        <v>211512.2246855657</v>
       </c>
       <c r="F6" t="n">
-        <v>184449.8680164375</v>
+        <v>211512.2246855657</v>
       </c>
       <c r="G6" t="n">
-        <v>94716.99862390941</v>
+        <v>154498.8396524756</v>
       </c>
       <c r="H6" t="n">
-        <v>258668.1194340955</v>
+        <v>258668.1194340953</v>
       </c>
       <c r="I6" t="n">
-        <v>258668.1194340953</v>
+        <v>258668.1194340954</v>
       </c>
       <c r="J6" t="n">
-        <v>80591.19094531563</v>
+        <v>23522.90915653402</v>
       </c>
       <c r="K6" t="n">
         <v>258668.1194340953</v>
@@ -26552,16 +26554,16 @@
         <v>258668.1194340953</v>
       </c>
       <c r="M6" t="n">
-        <v>258668.1194340955</v>
+        <v>258668.1194340953</v>
       </c>
       <c r="N6" t="n">
-        <v>258668.1194340954</v>
+        <v>258668.1194340953</v>
       </c>
       <c r="O6" t="n">
-        <v>184449.8680164375</v>
+        <v>211512.2246855656</v>
       </c>
       <c r="P6" t="n">
-        <v>184449.8680164375</v>
+        <v>211512.2246855657</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>219.9391406505648</v>
+        <v>322.8165819652123</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.43346327040788</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>47.18544517283252</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>167.6955245908971</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>143.7657611556725</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.1854451728328</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>207.7832193753181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>202.2434271348606</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>261.4541880383621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>146.6564532437567</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.098167740203</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>534.3646536318382</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>92.69397412617626</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34784,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7417458120015</v>
+        <v>204.8031984086958</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>553.3863776657553</v>
       </c>
       <c r="O5" t="n">
-        <v>286.8423062227549</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>21.99140745837594</v>
       </c>
       <c r="P6" t="n">
-        <v>382.8939578476549</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>286.8423062227546</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>368.0031569662214</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
-        <v>458.2198842343128</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>137.7344761126317</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>549.900053433188</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>29.76929843599521</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>653.1084262398208</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>598.4268796522107</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O14" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>29.76929843599521</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35893,19 +35895,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>928.4912652212506</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36130,7 +36132,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36139,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>436.0509951211323</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>571.2015688936807</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36367,7 +36369,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>713.9484244620658</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36376,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>443.2698594835069</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>452.1971664929786</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>574.2156596605913</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>829.0832568307267</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N41" t="n">
-        <v>73.67225009225932</v>
+        <v>511.3026454403762</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>404.3842704899966</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>145.0365254233101</v>
       </c>
       <c r="O44" t="n">
-        <v>192.4160227002419</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
@@ -38099,13 +38101,13 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>267.9362834922759</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1391312.589598581</v>
+        <v>1390337.386511034</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12157779.51246666</v>
+        <v>12157779.51246667</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786423.703430226</v>
+        <v>1786423.703430227</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>318.5167587730489</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -670,13 +670,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>78.46731537944622</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>123.0673923170406</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -867,16 +867,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>251.3641700159526</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -913,10 +913,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>47.09551781488202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -964,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>51.58543740429398</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>218.6295128576332</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>123.2688973097746</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429398</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1375,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1384,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>186.5146679205615</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>62.22043453463929</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>31.11661068715803</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348037</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>186.5146679205615</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>193.8217949780461</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1767,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>102.150918808062</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>124.4294523839912</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2292,10 +2292,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>218.7757544134941</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>210.9901448100166</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2718,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>121.2482518332238</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2952,16 +2952,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>103.8603782851908</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3192,16 +3192,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>42.31835596290409</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>71.98551788635311</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3435,7 +3435,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -3444,7 +3444,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3666,10 +3666,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>140.7881002138958</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>117.9017664154507</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>310.6846677867061</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>16.46657912888042</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3954,19 +3954,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.2730214979432</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3991,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>172.8131440571511</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>330.4778708711513</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>35.56826410134457</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>98.15366458399249</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1808.387759433938</v>
+        <v>2510.296542000307</v>
       </c>
       <c r="C2" t="n">
-        <v>1381.487029447238</v>
+        <v>2083.395812013608</v>
       </c>
       <c r="D2" t="n">
-        <v>958.1944086322388</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E2" t="n">
-        <v>532.2174687800964</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F2" t="n">
-        <v>511.1336910099006</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G2" t="n">
-        <v>106.7946285993492</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
         <v>106.7946285993492</v>
@@ -4330,28 +4330,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>434.501216159716</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>1150.009524135215</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L2" t="n">
-        <v>2039.744271252618</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M2" t="n">
-        <v>2929.479018370021</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N2" t="n">
-        <v>2929.479018370021</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O2" t="n">
-        <v>3021.246052754936</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P2" t="n">
-        <v>3021.246052754936</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q2" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
         <v>3594.887867141022</v>
@@ -4360,22 +4360,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>3373.962296185655</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U2" t="n">
-        <v>3115.607386782067</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V2" t="n">
-        <v>3115.607386782067</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.216037082414</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="X2" t="n">
-        <v>2307.496038250161</v>
+        <v>2833.327507775769</v>
       </c>
       <c r="Y2" t="n">
-        <v>2228.236123725468</v>
+        <v>2832.030641771064</v>
       </c>
     </row>
     <row r="3">
@@ -4418,19 +4418,19 @@
         <v>71.89775734282044</v>
       </c>
       <c r="M3" t="n">
-        <v>274.6529237674293</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N3" t="n">
-        <v>1164.387670884832</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="O3" t="n">
-        <v>1164.387670884832</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="P3" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q3" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R3" t="n">
         <v>1880.58538792333</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1638.553905277558</v>
+        <v>2497.65596225213</v>
       </c>
       <c r="C4" t="n">
-        <v>1514.243407987618</v>
+        <v>2325.683399131046</v>
       </c>
       <c r="D4" t="n">
-        <v>1514.243407987618</v>
+        <v>2162.366626257817</v>
       </c>
       <c r="E4" t="n">
-        <v>1514.243407987618</v>
+        <v>1996.158420410671</v>
       </c>
       <c r="F4" t="n">
-        <v>1514.243407987618</v>
+        <v>1824.296646185231</v>
       </c>
       <c r="G4" t="n">
-        <v>1514.243407987618</v>
+        <v>1658.039676479463</v>
       </c>
       <c r="H4" t="n">
         <v>1514.243407987618</v>
@@ -4515,25 +4515,25 @@
         <v>3547.849253828195</v>
       </c>
       <c r="S4" t="n">
-        <v>3377.71420634733</v>
+        <v>3431.580999656136</v>
       </c>
       <c r="T4" t="n">
-        <v>3134.37485857323</v>
+        <v>3431.580999656136</v>
       </c>
       <c r="U4" t="n">
-        <v>2854.190410073534</v>
+        <v>3431.580999656136</v>
       </c>
       <c r="V4" t="n">
-        <v>2572.478942681563</v>
+        <v>3431.580999656136</v>
       </c>
       <c r="W4" t="n">
-        <v>2297.626538854076</v>
+        <v>3156.728595828649</v>
       </c>
       <c r="X4" t="n">
-        <v>2055.062642299881</v>
+        <v>2914.164699274454</v>
       </c>
       <c r="Y4" t="n">
-        <v>1828.719873989623</v>
+        <v>2687.821930964196</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1604.101469398726</v>
+        <v>2106.256137959903</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.200739412026</v>
+        <v>2083.395812013608</v>
       </c>
       <c r="D5" t="n">
-        <v>923.29753737571</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E5" t="n">
-        <v>901.3610015639716</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F5" t="n">
-        <v>476.2368197533718</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G5" t="n">
-        <v>71.89775734282044</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H5" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>434.501216159716</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K5" t="n">
-        <v>1150.009524135215</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L5" t="n">
-        <v>2039.744271252618</v>
+        <v>396.6319083693176</v>
       </c>
       <c r="M5" t="n">
-        <v>2929.479018370021</v>
+        <v>1286.36665548672</v>
       </c>
       <c r="N5" t="n">
-        <v>3477.331532259119</v>
+        <v>2176.101402604123</v>
       </c>
       <c r="O5" t="n">
-        <v>3477.331532259119</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="P5" t="n">
-        <v>3477.331532259119</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q5" t="n">
         <v>3477.331532259119</v>
@@ -4597,22 +4597,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T5" t="n">
-        <v>3594.887867141022</v>
+        <v>3547.316637024979</v>
       </c>
       <c r="U5" t="n">
-        <v>3594.887867141022</v>
+        <v>3288.961727621391</v>
       </c>
       <c r="V5" t="n">
-        <v>3237.398452267271</v>
+        <v>2931.472312747641</v>
       </c>
       <c r="W5" t="n">
-        <v>2841.007102567618</v>
+        <v>2535.080963047988</v>
       </c>
       <c r="X5" t="n">
-        <v>2429.287103735365</v>
+        <v>2123.360964215735</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.949833690256</v>
+        <v>2122.064098211029</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>79.34440030473228</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>79.34440030473228</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>79.34440030473228</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L6" t="n">
-        <v>79.34440030473228</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="M6" t="n">
-        <v>969.0791474221352</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N6" t="n">
-        <v>1858.813894539538</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O6" t="n">
         <v>1880.58538792333</v>
@@ -4704,22 +4704,22 @@
         <v>295.9768228924842</v>
       </c>
       <c r="C7" t="n">
-        <v>124.0042597714002</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="D7" t="n">
-        <v>124.0042597714002</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="E7" t="n">
-        <v>124.0042597714002</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="F7" t="n">
-        <v>124.0042597714002</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="G7" t="n">
-        <v>124.0042597714002</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="H7" t="n">
-        <v>124.0042597714002</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I7" t="n">
         <v>71.89775734282044</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1604.101469398726</v>
+        <v>1124.820989039771</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.200739412026</v>
+        <v>1101.960663093475</v>
       </c>
       <c r="D8" t="n">
-        <v>753.908118597026</v>
+        <v>1082.70844631888</v>
       </c>
       <c r="E8" t="n">
-        <v>327.9311787448836</v>
+        <v>1060.771910507141</v>
       </c>
       <c r="F8" t="n">
-        <v>107.0932869694965</v>
+        <v>635.6477286965417</v>
       </c>
       <c r="G8" t="n">
-        <v>106.7946285993492</v>
+        <v>231.3086662859903</v>
       </c>
       <c r="H8" t="n">
         <v>106.7946285993492</v>
@@ -4807,25 +4807,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>787.4060653183195</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L8" t="n">
-        <v>787.4060653183195</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M8" t="n">
-        <v>1677.140812435722</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N8" t="n">
-        <v>1677.140812435722</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O8" t="n">
-        <v>2522.285462586535</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P8" t="n">
-        <v>3230.564741744462</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q8" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
         <v>3594.887867141022</v>
@@ -4834,22 +4834,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>3594.887867141022</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U8" t="n">
-        <v>3594.887867141022</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V8" t="n">
-        <v>3237.398452267271</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W8" t="n">
-        <v>2841.007102567618</v>
+        <v>2361.726622208664</v>
       </c>
       <c r="X8" t="n">
-        <v>2429.287103735365</v>
+        <v>1950.006623376411</v>
       </c>
       <c r="Y8" t="n">
-        <v>2023.949833690256</v>
+        <v>1544.669353331301</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K9" t="n">
-        <v>662.38268391116</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="L9" t="n">
-        <v>662.38268391116</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.387670884832</v>
+        <v>1240.776636701726</v>
       </c>
       <c r="N9" t="n">
-        <v>1164.387670884832</v>
+        <v>1240.776636701726</v>
       </c>
       <c r="O9" t="n">
-        <v>1164.387670884832</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="P9" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q9" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R9" t="n">
         <v>1880.58538792333</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.9768228924842</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C10" t="n">
-        <v>124.0042597714002</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D10" t="n">
-        <v>71.89775734282044</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E10" t="n">
-        <v>71.89775734282044</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F10" t="n">
-        <v>71.89775734282044</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G10" t="n">
-        <v>71.89775734282044</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H10" t="n">
-        <v>71.89775734282044</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
         <v>71.89775734282044</v>
@@ -4986,28 +4986,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2035.137123962257</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T10" t="n">
-        <v>1791.797776188157</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U10" t="n">
-        <v>1511.613327688461</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V10" t="n">
-        <v>1229.90186029649</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W10" t="n">
-        <v>955.0494564690027</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X10" t="n">
-        <v>712.4855599148078</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y10" t="n">
-        <v>486.1427916045499</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1961.590884272476</v>
+        <v>2052.107049928779</v>
       </c>
       <c r="C11" t="n">
-        <v>1534.690154285776</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="D11" t="n">
-        <v>1111.397533470776</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="E11" t="n">
-        <v>685.4205936186339</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F11" t="n">
-        <v>260.2964118080341</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G11" t="n">
-        <v>71.89775734282044</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H11" t="n">
         <v>71.89775734282044</v>
@@ -5041,28 +5041,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>434.501216159716</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K11" t="n">
-        <v>1150.009524135215</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L11" t="n">
-        <v>2039.744271252618</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M11" t="n">
-        <v>2176.101402604123</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="N11" t="n">
-        <v>2176.101402604123</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O11" t="n">
-        <v>3021.246052754936</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P11" t="n">
-        <v>3021.246052754936</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q11" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
         <v>3594.887867141022</v>
@@ -5074,19 +5074,19 @@
         <v>3594.887867141022</v>
       </c>
       <c r="U11" t="n">
-        <v>3594.887867141022</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V11" t="n">
-        <v>3594.887867141022</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="W11" t="n">
-        <v>3198.496517441368</v>
+        <v>2940.141608037781</v>
       </c>
       <c r="X11" t="n">
-        <v>2786.776518609116</v>
+        <v>2877.292684265418</v>
       </c>
       <c r="Y11" t="n">
-        <v>2381.439248564006</v>
+        <v>2471.955414220309</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K12" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="L12" t="n">
-        <v>71.89775734282044</v>
+        <v>1187.84069766723</v>
       </c>
       <c r="M12" t="n">
-        <v>101.3693627944557</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N12" t="n">
-        <v>991.1041099118586</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O12" t="n">
         <v>1880.58538792333</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>486.1427916045499</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C13" t="n">
-        <v>486.1427916045499</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="D13" t="n">
-        <v>486.1427916045499</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="E13" t="n">
-        <v>486.1427916045499</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="F13" t="n">
         <v>481.7195638001579</v>
@@ -5223,28 +5223,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.137123962257</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T13" t="n">
-        <v>1791.797776188157</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U13" t="n">
-        <v>1511.613327688461</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.90186029649</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W13" t="n">
-        <v>955.0494564690027</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X13" t="n">
-        <v>712.4855599148078</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.1427916045499</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1961.590884272476</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C14" t="n">
-        <v>1534.690154285776</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D14" t="n">
-        <v>1111.397533470776</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E14" t="n">
-        <v>685.4205936186339</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F14" t="n">
-        <v>260.2964118080341</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G14" t="n">
         <v>71.89775734282044</v>
@@ -5284,22 +5284,22 @@
         <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.009524135215</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M14" t="n">
-        <v>1742.452134990904</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="N14" t="n">
-        <v>2632.186882108307</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="O14" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P14" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q14" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
         <v>3594.887867141022</v>
@@ -5311,19 +5311,19 @@
         <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>3594.887867141022</v>
+        <v>3399.108276254106</v>
       </c>
       <c r="V14" t="n">
-        <v>3594.887867141022</v>
+        <v>3399.108276254106</v>
       </c>
       <c r="W14" t="n">
-        <v>3198.496517441368</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="X14" t="n">
-        <v>2786.776518609116</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y14" t="n">
-        <v>2381.439248564006</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K15" t="n">
-        <v>71.89775734282044</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L15" t="n">
-        <v>71.89775734282044</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="M15" t="n">
-        <v>101.3693627944557</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="N15" t="n">
-        <v>991.1041099118586</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O15" t="n">
-        <v>1880.58538792333</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P15" t="n">
         <v>1880.58538792333</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.078879867057</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C16" t="n">
-        <v>983.1063167459732</v>
+        <v>409.9677374154064</v>
       </c>
       <c r="D16" t="n">
-        <v>819.7895438727439</v>
+        <v>409.9677374154064</v>
       </c>
       <c r="E16" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F16" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
         <v>71.89775734282044</v>
@@ -5466,22 +5466,22 @@
         <v>2252.310784755949</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.310784755949</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.310784755949</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.003917271063</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.151513443576</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X16" t="n">
-        <v>1571.587616889381</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.244848579123</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
     <row r="17">
@@ -5515,22 +5515,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
         <v>5115.135670291427</v>
@@ -5591,22 +5591,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>2002.531292319261</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1727.678888491774</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>4676.976398979054</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U22" t="n">
-        <v>4676.976398979054</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V22" t="n">
-        <v>4676.976398979054</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W22" t="n">
-        <v>4676.976398979054</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X22" t="n">
-        <v>4434.41250242486</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.618246195026</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818557</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1656.119987170036</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1374.408519778064</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1099.556115950577</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>856.9922193963826</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>630.6494510861246</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1270.928123658803</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>496.5168264363576</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>324.5442633152736</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1430.441863840363</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1155.589460012876</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>913.0255634586812</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>686.6827951484232</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4220.213029898572</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.79262694784</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N30" t="n">
-        <v>1194.79262694784</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L33" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M33" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N33" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O33" t="n">
-        <v>4398.937953252929</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>818.4078435766714</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>646.4352804555874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>483.1185075823581</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>316.9103017352116</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>145.0485275097721</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1477.48047715319</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1234.916580598995</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1008.573812288737</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6946,19 +6946,19 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>1013.622061704626</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V37" t="n">
-        <v>2019.640305074347</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W37" t="n">
-        <v>1744.78790124686</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X37" t="n">
-        <v>1502.224004692665</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>1086.334706034276</v>
       </c>
     </row>
     <row r="38">
@@ -7177,22 +7177,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291427</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>374.0002026854196</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.1370507523521</v>
+        <v>851.4325941215639</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>679.4600310004798</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>516.1432581272505</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1941.958004048024</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U40" t="n">
-        <v>1661.773555548329</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V40" t="n">
-        <v>1380.062088156358</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.20968432887</v>
+        <v>1510.505227698082</v>
       </c>
       <c r="X40" t="n">
-        <v>862.6457877746757</v>
+        <v>1267.941331143888</v>
       </c>
       <c r="Y40" t="n">
-        <v>636.3030194644177</v>
+        <v>1041.59856283363</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1020.453694912912</v>
+        <v>1647.767987518228</v>
       </c>
       <c r="C41" t="n">
-        <v>901.3610015639716</v>
+        <v>1220.867257531528</v>
       </c>
       <c r="D41" t="n">
-        <v>901.3610015639716</v>
+        <v>1220.867257531528</v>
       </c>
       <c r="E41" t="n">
-        <v>901.3610015639716</v>
+        <v>794.8903176793854</v>
       </c>
       <c r="F41" t="n">
-        <v>476.2368197533718</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="G41" t="n">
-        <v>71.89775734282044</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H41" t="n">
         <v>71.89775734282044</v>
@@ -7411,52 +7411,52 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
-        <v>71.89775734282044</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>71.89775734282044</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M41" t="n">
-        <v>961.6325044602233</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="N41" t="n">
-        <v>1467.822123446196</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O41" t="n">
-        <v>2312.966773597008</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P41" t="n">
-        <v>3021.246052754936</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q41" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
         <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3011.240092655207</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>2653.750677781457</v>
+        <v>3281.064970386773</v>
       </c>
       <c r="W41" t="n">
-        <v>2257.359328081804</v>
+        <v>2884.67362068712</v>
       </c>
       <c r="X41" t="n">
-        <v>1845.639329249551</v>
+        <v>2472.953621854867</v>
       </c>
       <c r="Y41" t="n">
-        <v>1440.302059204442</v>
+        <v>2067.616351809757</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J42" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K42" t="n">
-        <v>71.89775734282044</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L42" t="n">
-        <v>71.89775734282044</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="M42" t="n">
-        <v>961.6325044602233</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="N42" t="n">
-        <v>1851.367251577626</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O42" t="n">
         <v>1880.58538792333</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.078879867057</v>
+        <v>576.16127139218</v>
       </c>
       <c r="C43" t="n">
-        <v>983.1063167459732</v>
+        <v>404.1887082710959</v>
       </c>
       <c r="D43" t="n">
-        <v>819.7895438727439</v>
+        <v>404.1887082710959</v>
       </c>
       <c r="E43" t="n">
-        <v>653.5813380255975</v>
+        <v>404.1887082710959</v>
       </c>
       <c r="F43" t="n">
-        <v>481.7195638001579</v>
+        <v>232.3269340456564</v>
       </c>
       <c r="G43" t="n">
-        <v>315.4625940943901</v>
+        <v>232.3269340456564</v>
       </c>
       <c r="H43" t="n">
-        <v>171.6663256025445</v>
+        <v>88.53066555381076</v>
       </c>
       <c r="I43" t="n">
         <v>71.89775734282044</v>
@@ -7593,28 +7593,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.310784755949</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S43" t="n">
-        <v>2082.175737275084</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T43" t="n">
-        <v>1838.836389500983</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U43" t="n">
-        <v>1558.651941001288</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="V43" t="n">
-        <v>1558.651941001288</v>
+        <v>1510.086308796185</v>
       </c>
       <c r="W43" t="n">
-        <v>1558.651941001288</v>
+        <v>1235.233904968698</v>
       </c>
       <c r="X43" t="n">
-        <v>1558.651941001288</v>
+        <v>992.6700084145035</v>
       </c>
       <c r="Y43" t="n">
-        <v>1345.244848579123</v>
+        <v>766.3272401042456</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2177.531292217814</v>
+        <v>1682.664858774756</v>
       </c>
       <c r="C44" t="n">
-        <v>1750.630562231114</v>
+        <v>1255.764128788056</v>
       </c>
       <c r="D44" t="n">
-        <v>1327.337941416114</v>
+        <v>1255.764128788056</v>
       </c>
       <c r="E44" t="n">
-        <v>901.3610015639716</v>
+        <v>829.7871889359142</v>
       </c>
       <c r="F44" t="n">
-        <v>476.2368197533718</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="G44" t="n">
-        <v>71.89775734282044</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H44" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I44" t="n">
         <v>71.89775734282044</v>
@@ -7654,46 +7654,46 @@
         <v>434.501216159716</v>
       </c>
       <c r="L44" t="n">
-        <v>434.501216159716</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="M44" t="n">
-        <v>1324.235963277119</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N44" t="n">
-        <v>1467.822123446196</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O44" t="n">
-        <v>2312.966773597008</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P44" t="n">
-        <v>3021.246052754936</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q44" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
         <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T44" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U44" t="n">
-        <v>3336.532957737434</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V44" t="n">
-        <v>3336.532957737434</v>
+        <v>3315.961841643302</v>
       </c>
       <c r="W44" t="n">
-        <v>3336.532957737434</v>
+        <v>2919.570491943649</v>
       </c>
       <c r="X44" t="n">
-        <v>3002.716926554453</v>
+        <v>2507.850493111396</v>
       </c>
       <c r="Y44" t="n">
-        <v>2597.379656509343</v>
+        <v>2102.513223066287</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J45" t="n">
-        <v>343.5952466224115</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K45" t="n">
-        <v>934.0801731907511</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L45" t="n">
-        <v>1770.878981273657</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="M45" t="n">
-        <v>1880.58538792333</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="N45" t="n">
-        <v>1880.58538792333</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O45" t="n">
         <v>1880.58538792333</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>343.015436205311</v>
+        <v>617.8678400327981</v>
       </c>
       <c r="C46" t="n">
-        <v>171.042873084227</v>
+        <v>445.8952769117141</v>
       </c>
       <c r="D46" t="n">
-        <v>171.042873084227</v>
+        <v>409.9677374154064</v>
       </c>
       <c r="E46" t="n">
-        <v>171.042873084227</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
         <v>71.89775734282044</v>
@@ -7845,13 +7845,13 @@
         <v>1276.940473609317</v>
       </c>
       <c r="W46" t="n">
-        <v>1002.08806978183</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="X46" t="n">
-        <v>759.5241732276346</v>
+        <v>1034.376577055122</v>
       </c>
       <c r="Y46" t="n">
-        <v>533.1814049173767</v>
+        <v>808.0338087448638</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>758.5002654165255</v>
@@ -7987,22 +7987,22 @@
         <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>936.1532296846872</v>
+        <v>222.1460683914359</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O2" t="n">
-        <v>130.0849334822004</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8066,22 +8066,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>227.8999789210238</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P3" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>937.0340092178783</v>
+        <v>366.3263363987816</v>
       </c>
       <c r="M5" t="n">
         <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>590.6660005002013</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,25 +8291,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>354.3009017594491</v>
       </c>
       <c r="M6" t="n">
         <v>921.8187472975834</v>
       </c>
       <c r="N6" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>45.16329718059816</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8455,7 +8455,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
@@ -8464,19 +8464,19 @@
         <v>936.1532296846872</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O8" t="n">
-        <v>891.0724241548241</v>
+        <v>503.6531028099451</v>
       </c>
       <c r="P8" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>404.1278315708194</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>530.1725249301787</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>117.7617526253753</v>
       </c>
       <c r="P9" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,10 +8698,10 @@
         <v>937.0340092178783</v>
       </c>
       <c r="M11" t="n">
-        <v>175.1657390120635</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>221.9944283264504</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>52.86607894832319</v>
+        <v>722.8388918821267</v>
       </c>
       <c r="N12" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8932,16 +8932,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M14" t="n">
-        <v>635.8581425516425</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N14" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>709.5211096297619</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -8950,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M15" t="n">
-        <v>52.86607894832319</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9175,13 +9175,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9251,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>742.2891030007354</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>855.4509062314407</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9488,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>222.4436976025015</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,10 +9500,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9658,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9737,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9895,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9962,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>116.6167335079122</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>480.8452212937382</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>281.3706244104145</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P30" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10372,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
@@ -10442,16 +10442,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>852.2551465529489</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>784.1890535317962</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10688,7 +10688,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>705.1634862205228</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10840,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>71.42110271777969</v>
       </c>
       <c r="O39" t="n">
-        <v>300.5735435756951</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M41" t="n">
-        <v>936.1532296846872</v>
+        <v>754.6019151596252</v>
       </c>
       <c r="N41" t="n">
-        <v>548.5822682748222</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M42" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>52.685158758287</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11302,25 +11302,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M44" t="n">
-        <v>936.1532296846872</v>
+        <v>578.615612996086</v>
       </c>
       <c r="N44" t="n">
-        <v>182.3161482577561</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11381,16 +11381,16 @@
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M45" t="n">
-        <v>133.9113326837148</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>213.7810038658843</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23314,7 +23314,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>345.3823643092909</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>139.1362268027151</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,7 +23427,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568371</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>213.7810038658843</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23551,7 +23551,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>61.94956533150577</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>68.10191868181114</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>115.7088052046617</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>22.1301998828649</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>58.60684960120443</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>66.39245920468218</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.43535331127319</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24621,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>66.3924592046823</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>122.2760440458061</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>116.2787911385919</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>23.75802357477917</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>304.7299562713822</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>43.22985293830686</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>82.30430344824637</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>12.8063191292122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>181.1013766678619</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>77.12492797277895</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>126.1153410431524</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>71.98949189919269</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>511318.5515279082</v>
+        <v>511318.5515279083</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>646334.9636080645</v>
+        <v>646334.9636080643</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>646334.9636080643</v>
+        <v>646334.9636080645</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>646334.9636080645</v>
+        <v>646334.9636080643</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646334.9636080643</v>
+        <v>646334.9636080645</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>646334.9636080643</v>
+        <v>646334.9636080645</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>646334.9636080643</v>
+        <v>646334.9636080645</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>511318.5515279083</v>
+        <v>511318.5515279082</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>511318.5515279082</v>
+        <v>511318.5515279081</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349465.600806698</v>
+        <v>349465.6008066979</v>
       </c>
       <c r="C2" t="n">
         <v>349465.600806698</v>
@@ -26322,7 +26322,7 @@
         <v>349465.600806698</v>
       </c>
       <c r="E2" t="n">
-        <v>266774.8964493432</v>
+        <v>266774.8964493433</v>
       </c>
       <c r="F2" t="n">
         <v>266774.8964493432</v>
@@ -26331,28 +26331,28 @@
         <v>337218.2418824684</v>
       </c>
       <c r="H2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="I2" t="n">
+        <v>337218.2418824683</v>
+      </c>
+      <c r="J2" t="n">
         <v>337218.2418824685</v>
       </c>
-      <c r="J2" t="n">
-        <v>337218.2418824684</v>
-      </c>
       <c r="K2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="L2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="M2" t="n">
         <v>337218.2418824684</v>
       </c>
       <c r="N2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="O2" t="n">
-        <v>266774.8964493432</v>
+        <v>266774.8964493433</v>
       </c>
       <c r="P2" t="n">
         <v>266774.8964493432</v>
@@ -26420,46 +26420,46 @@
         <v>79282.26202110137</v>
       </c>
       <c r="C4" t="n">
+        <v>79282.2620211014</v>
+      </c>
+      <c r="D4" t="n">
         <v>79282.26202110137</v>
       </c>
-      <c r="D4" t="n">
-        <v>79282.26202110139</v>
-      </c>
       <c r="E4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="F4" t="n">
         <v>620.3761832340385</v>
       </c>
       <c r="G4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="K4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="L4" t="n">
         <v>800.0602599433672</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>800.0602599433672</v>
-      </c>
-      <c r="L4" t="n">
-        <v>800.0602599433671</v>
-      </c>
-      <c r="M4" t="n">
-        <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="P4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
     </row>
     <row r="5">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-119268.958469922</v>
+        <v>-119268.9584699221</v>
       </c>
       <c r="C6" t="n">
         <v>181913.4432050531</v>
@@ -26530,40 +26530,40 @@
         <v>181913.4432050531</v>
       </c>
       <c r="E6" t="n">
-        <v>211512.2246855657</v>
+        <v>211167.6800840768</v>
       </c>
       <c r="F6" t="n">
-        <v>211512.2246855657</v>
+        <v>211167.6800840767</v>
       </c>
       <c r="G6" t="n">
-        <v>154498.8396524756</v>
+        <v>154447.8089902913</v>
       </c>
       <c r="H6" t="n">
-        <v>258668.1194340953</v>
+        <v>258617.088771911</v>
       </c>
       <c r="I6" t="n">
-        <v>258668.1194340954</v>
+        <v>258617.0887719109</v>
       </c>
       <c r="J6" t="n">
-        <v>23522.90915653402</v>
+        <v>23471.87849434979</v>
       </c>
       <c r="K6" t="n">
-        <v>258668.1194340953</v>
+        <v>258617.088771911</v>
       </c>
       <c r="L6" t="n">
-        <v>258668.1194340953</v>
+        <v>258617.088771911</v>
       </c>
       <c r="M6" t="n">
-        <v>258668.1194340953</v>
+        <v>258617.088771911</v>
       </c>
       <c r="N6" t="n">
-        <v>258668.1194340953</v>
+        <v>258617.088771911</v>
       </c>
       <c r="O6" t="n">
-        <v>211512.2246855656</v>
+        <v>211167.6800840768</v>
       </c>
       <c r="P6" t="n">
-        <v>211512.2246855657</v>
+        <v>211167.6800840767</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>97.13312187556579</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.8165819652123</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>47.18544517283252</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>53.3281253757179</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>167.6955245908971</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>171.6207974309312</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>47.1854451728328</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -27794,7 +27794,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>47.1854451728328</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>202.2434271348606</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>171.6207974309309</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.098167740203</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>722.7356646217162</v>
@@ -34707,22 +34707,22 @@
         <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
+        <v>184.7148054920041</v>
+      </c>
+      <c r="N2" t="n">
         <v>898.7219667852554</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>92.69397412617626</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>204.8031984086958</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P3" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>898.7219667852554</v>
+        <v>328.0142939661587</v>
       </c>
       <c r="M5" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="N5" t="n">
-        <v>553.3863776657553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,25 +35011,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>331.7858150452195</v>
       </c>
       <c r="M6" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="N6" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>21.99140745837594</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,19 +35184,19 @@
         <v>898.7219667852554</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O8" t="n">
-        <v>853.6814647988001</v>
+        <v>466.262143453921</v>
       </c>
       <c r="P8" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>368.0031569662214</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>507.0757444178507</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>94.5898629031531</v>
       </c>
       <c r="P9" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,10 +35418,10 @@
         <v>898.7219667852554</v>
       </c>
       <c r="M11" t="n">
-        <v>137.7344761126317</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>184.7148054920043</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,10 +35430,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>29.76929843599521</v>
+        <v>699.7421113697987</v>
       </c>
       <c r="N12" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M14" t="n">
-        <v>598.4268796522107</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N14" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>672.1301502737379</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M15" t="n">
-        <v>29.76929843599521</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35895,13 +35895,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>818.1712833969947</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36141,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>201.1006693889599</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36378,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36615,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>443.2698594835069</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P30" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37092,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>829.0832568307267</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>761.6739668175666</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37560,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="O39" t="n">
-        <v>277.4016538534729</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M41" t="n">
-        <v>898.7219667852554</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="N41" t="n">
-        <v>511.3026454403762</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M42" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>29.51326903606477</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M44" t="n">
+        <v>541.1843500966543</v>
+      </c>
+      <c r="N44" t="n">
         <v>898.7219667852554</v>
-      </c>
-      <c r="N44" t="n">
-        <v>145.0365254233101</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
@@ -38101,16 +38101,16 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M45" t="n">
-        <v>110.8145521713869</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
